--- a/db/seed_xls/データ管理0525.xlsx
+++ b/db/seed_xls/データ管理0525.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25823"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-32660" yWindow="1380" windowWidth="30760" windowHeight="17820" activeTab="5"/>
+    <workbookView xWindow="-32660" yWindow="1380" windowWidth="30760" windowHeight="17820" tabRatio="853" firstSheet="2" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="UNIT_MASTER" sheetId="13" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="195">
   <si>
     <t>ID</t>
   </si>
@@ -1289,6 +1289,23 @@
   </si>
   <si>
     <t>2015/06/18 12:00:00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン数</t>
+    <rPh sb="4" eb="5">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>連続ログイン数</t>
+    <rPh sb="0" eb="2">
+      <t>レンゾク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>スウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1376,8 +1393,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1419,14 +1448,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="11">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="10" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -4213,7 +4246,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
@@ -4258,7 +4291,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -4271,7 +4304,7 @@
       </c>
       <c r="E3" t="str">
         <f ca="1">"INSERT INTO " &amp; RIGHT(CELL("filename",B3),LEN(CELL("filename",B3))-FIND("]",CELL("filename",B3))) &amp; " VALUES (" &amp; A3 &amp; "," &amp; B3 &amp; "," &amp; C3 &amp; "," &amp; D3 &amp; ");"</f>
-        <v>INSERT INTO EXP_MASTER VALUES (1,1,3,120);</v>
+        <v>INSERT INTO EXP_MASTER VALUES (2,1,3,120);</v>
       </c>
     </row>
   </sheetData>
@@ -4289,8 +4322,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
@@ -4335,7 +4368,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -4348,7 +4381,7 @@
       </c>
       <c r="E3" t="str">
         <f ca="1">"INSERT INTO " &amp; RIGHT(CELL("filename",B3),LEN(CELL("filename",B3))-FIND("]",CELL("filename",B3))) &amp; " VALUES (" &amp; A3 &amp; "," &amp; B3 &amp; ",'" &amp; C3 &amp; "','" &amp; D3 &amp; "');"</f>
-        <v>INSERT INTO UPDATE_MASTER VALUES (1,2,'ガチャ追加','2015/06/01 15:00:00');</v>
+        <v>INSERT INTO UPDATE_MASTER VALUES (2,2,'ガチャ追加','2015/06/01 15:00:00');</v>
       </c>
     </row>
   </sheetData>
@@ -5023,25 +5056,25 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="19.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:12">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -5049,28 +5082,34 @@
         <v>53</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:12">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5078,28 +5117,34 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
         <v>3</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>132</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="J2" t="str">
-        <f ca="1">"INSERT INTO " &amp; RIGHT(CELL("filename",B2),LEN(CELL("filename",B2))-FIND("]",CELL("filename",B2))) &amp; " VALUES (" &amp; A2 &amp; "," &amp; B2 &amp; "," &amp; C2 &amp; "," &amp; D2 &amp; "," &amp; E2 &amp; "," &amp; F2 &amp; ",'" &amp; G2 &amp; "','" &amp; H2 &amp; "','" &amp; I2 &amp; "');"</f>
+      <c r="L2" t="str">
+        <f ca="1">"INSERT INTO " &amp; RIGHT(CELL("filename",B2),LEN(CELL("filename",B2))-FIND("]",CELL("filename",B2))) &amp; " VALUES (" &amp; A2 &amp; "," &amp; B2 &amp; "," &amp; E2 &amp; "," &amp; F2 &amp; "," &amp; G2 &amp; "," &amp; H2 &amp; ",'" &amp; I2 &amp; "','" &amp; J2 &amp; "','" &amp; K2 &amp; "');"</f>
         <v>INSERT INTO PRESENT_MASTER VALUES (1,2,0,1,1,3,'ログインボーナスです','2015/05/18 12:00:00','2015/06/18 12:00:00');</v>
       </c>
     </row>
